--- a/web/JMW_Final.xlsx
+++ b/web/JMW_Final.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8470A09-9880-44E6-8231-9C75439D717D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iFaGgMytSw3WRhteLhreGVGqss5WGckMXj/CQhjHz7WKhao9JvOm5lcIuxYJ9hnXJRJvgUuvNVmatr28IYYsqQ==" workbookSaltValue="e3bId4+rV4h1+wQmsUc4HA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-19298" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
+    <workbookView xWindow="-19305" yWindow="-105" windowWidth="19395" windowHeight="10395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -423,20 +422,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (baseline assessment/characterization) done.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>No. with repeat VL un</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>suppressed within the 4 months</t>
     </r>
   </si>
   <si>
@@ -541,12 +526,27 @@
   <si>
     <t>Element</t>
   </si>
+  <si>
+    <r>
+      <t>No. with repeat VL un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suppressed within the 4 months</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="52" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +644,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Browallia New"/>
@@ -659,13 +652,6 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
       <name val="Browallia New"/>
       <family val="2"/>
     </font>
@@ -710,29 +696,7 @@
       <charset val="222"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Browallia New"/>
       <family val="2"/>
@@ -783,51 +747,11 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Browallia New"/>
       <family val="2"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -838,14 +762,130 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Browallia New"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Browallia New"/>
       <family val="2"/>
@@ -853,47 +893,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="0"/>
       <name val="Browallia New"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Browallia New"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="Browallia New"/>
       <family val="2"/>
     </font>
@@ -2032,13 +2054,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2046,12 +2065,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2060,62 +2073,274 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2123,532 +2348,342 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{931A1C79-423E-4C1D-A52E-ECC68AACDB72}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="67">
     <dxf>
@@ -3637,7 +3672,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{AD82AD95-1030-4F11-9231-CBE77875848A}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="66"/>
       <tableStyleElement type="headerRow" dxfId="65"/>
     </tableStyle>
@@ -3949,307 +3984,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC649BC-89EB-4473-9C37-02621920442C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="48" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="13.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="48" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="25.5">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+    <row r="3" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="67"/>
-    </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="64" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A4" s="37"/>
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
-      <c r="B5" s="64" t="s">
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A5" s="37"/>
+      <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="67"/>
-    </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
-      <c r="B6" s="70" t="s">
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A6" s="37"/>
+      <c r="B6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="26">
         <v>4</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="67"/>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="70" t="s">
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" s="21" customFormat="1" ht="40.5">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="26">
         <v>5</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="67"/>
-    </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="70" t="s">
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="26">
         <v>6</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="64" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="40.5">
+      <c r="A9" s="37"/>
+      <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="26">
         <v>7</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="64" t="s">
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A10" s="37"/>
+      <c r="B10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="26">
         <v>8</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="1:5" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="98" t="s">
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5">
+      <c r="A11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="26">
         <v>9</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.5">
+      <c r="A12" s="37"/>
+      <c r="B12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="27">
+      <c r="A13" s="37"/>
+      <c r="B13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="26">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="27">
+      <c r="A14" s="37"/>
+      <c r="B14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="27">
+      <c r="A15" s="37"/>
+      <c r="B15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="27">
+      <c r="A16" s="37"/>
+      <c r="B16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="27">
+      <c r="A17" s="37"/>
+      <c r="B17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="71"/>
-    </row>
-    <row r="12" spans="1:5" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
-      <c r="B12" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="65">
-        <v>10</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="71"/>
-    </row>
-    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="98"/>
-      <c r="B13" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="65">
-        <v>11</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="71"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
-      <c r="B14" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="71"/>
-    </row>
-    <row r="15" spans="1:5" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
-      <c r="B15" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="71"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
-      <c r="B16" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="71"/>
-    </row>
-    <row r="17" spans="1:5" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="71"/>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
-      <c r="B18" s="64" t="s">
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="71"/>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
-      <c r="B19" s="64" t="s">
+      <c r="C19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.65" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="71"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
-      <c r="B20" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="71"/>
-    </row>
-    <row r="51" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="51" spans="1:4" s="19" customFormat="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="1:4" s="19" customFormat="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" s="19" customFormat="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" s="19" customFormat="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" s="19" customFormat="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2" xr:uid="{98394013-72EF-49FD-9276-6D8C15A8A250}"/>
+  <autoFilter ref="A2:E2"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A20"/>
@@ -4262,1042 +4297,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F795B4-C53C-4558-AAD9-28AB113E7C55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="23" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114.7109375" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="13" width="7.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="7.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="28.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.7109375" style="5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7109375" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="32.7109375" style="6" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="31.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.42578125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.85546875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="34" width="9.140625" style="1"/>
     <col min="35" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" s="185" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A1" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148" t="s">
+      <c r="E1" s="173"/>
+      <c r="F1" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="146" t="s">
+      <c r="G1" s="175"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="45" t="s">
+      <c r="L1" s="173"/>
+      <c r="M1" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="131">
+      <c r="O1" s="178">
         <v>2020</v>
       </c>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="140" t="s">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="32">
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="183">
         <v>0</v>
       </c>
-      <c r="V1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="V1" s="184"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="32">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="63">
         <v>1</v>
       </c>
-      <c r="V2" s="13"/>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="21" t="s">
+      <c r="V2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
+      <c r="A3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="70">
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="72">
         <v>1</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="32">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="63">
         <v>2</v>
       </c>
-      <c r="V3" s="13"/>
-    </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="150" t="s">
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A4" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="32">
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="63">
         <v>3</v>
       </c>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="136" t="s">
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A5" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="34">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="78">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="55" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="160" t="s">
+    <row r="6" spans="1:22" s="202" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A6" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="143" t="s">
+      <c r="C6" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143" t="s">
+      <c r="E6" s="160"/>
+      <c r="F6" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143" t="s">
+      <c r="G6" s="160"/>
+      <c r="H6" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="152" t="s">
+      <c r="I6" s="160"/>
+      <c r="J6" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="153"/>
-      <c r="L6" s="152" t="s">
+      <c r="K6" s="162"/>
+      <c r="L6" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="153"/>
-      <c r="N6" s="168" t="s">
+      <c r="M6" s="162"/>
+      <c r="N6" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="154" t="s">
+      <c r="O6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="170" t="s">
+      <c r="P6" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="172" t="s">
+      <c r="Q6" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="134" t="s">
+      <c r="R6" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="53">
+      <c r="S6" s="199">
         <v>19</v>
       </c>
-      <c r="T6" s="54"/>
-    </row>
-    <row r="7" spans="1:22" s="55" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="161"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="56" t="s">
+      <c r="T6" s="200"/>
+      <c r="U6" s="201"/>
+    </row>
+    <row r="7" spans="1:22" s="202" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="53">
+      <c r="N7" s="165"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="199">
         <v>20</v>
       </c>
-      <c r="T7" s="54"/>
-    </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174" t="s">
+      <c r="T7" s="200"/>
+      <c r="U7" s="201"/>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A8" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="181">
+      <c r="C8" s="166">
         <v>1</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="93">
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83">
         <f>SUM(D8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="75" t="str">
+      <c r="O8" s="84" t="str">
         <f>CONCATENATE(IF(D8&gt;D9," * Element 1 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E8&gt;E9," * Element 1 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F8&gt;F9," * Element 1 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G8&gt;G9," * Element 1 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H8&gt;H9," * Element 1 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I8&gt;I9," * Element 1 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J8&gt;J9," * Element 1 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K8&gt;K9," * Element 1 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L8&gt;L9," * Element 1 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M8&gt;M9," * Element 1 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P8" s="162" t="str">
+      <c r="P8" s="85" t="str">
         <f>CONCATENATE(O8,O9,O10,O11,O12,O13,O14,O15,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26)</f>
         <v/>
       </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="165" t="str">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87" t="str">
         <f>CONCATENATE(Q10,Q9,Q8,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26)</f>
         <v/>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="88">
         <v>29</v>
       </c>
-      <c r="T8" s="59" t="s">
+      <c r="T8" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="59" t="s">
+      <c r="U8" s="89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175"/>
-      <c r="B9" s="186" t="s">
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A9" s="156"/>
+      <c r="B9" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="197">
+      <c r="C9" s="167">
         <v>2</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="81">
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94">
         <f t="shared" ref="N9:N15" si="0">SUM(D9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="77">
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="88">
         <v>30</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="98" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
-      <c r="B10" s="186" t="s">
+    <row r="10" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="197">
+      <c r="C10" s="167">
         <v>3</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="81">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="79" t="str">
+      <c r="O10" s="102" t="str">
         <f>CONCATENATE(IF(D11&lt;D10," * Element 4 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(E11&lt;E10," * Element 4 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(F11&lt;F10," * Element 4 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(G11&lt;G10," * Element 4 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(H11&lt;H10," * Element 4 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(I11&lt;I10," * Element 4 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(J11&lt;J10," * Element 4 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(K11&lt;K10," * Element 4 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(L11&lt;L10," * Element 4 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(M11&lt;M10," * Element 4 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than Element 3"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="77">
+      <c r="P10" s="96"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="88">
         <v>31</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="175"/>
-      <c r="B11" s="189" t="s">
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A11" s="156"/>
+      <c r="B11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="197">
+      <c r="C11" s="167">
         <v>4</v>
       </c>
-      <c r="D11" s="192"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="81">
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="75" t="str">
+      <c r="O11" s="84" t="str">
         <f>CONCATENATE(IF(D11&gt;D9," * Element 4 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E11&gt;E9," * Element 4 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F11&gt;F9," * Element 4 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G11&gt;G9," * Element 4 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H11&gt;H9," * Element 4 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I11&gt;I9," * Element 4 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J11&gt;J9," * Element 4 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K11&gt;K9," * Element 4 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L11&gt;L9," * Element 4 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M11&gt;M9," * Element 4 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="77">
+      <c r="P11" s="96"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="88">
         <v>29</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
-      <c r="B12" s="189" t="s">
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A12" s="156"/>
+      <c r="B12" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="197">
+      <c r="C12" s="167">
         <v>5</v>
       </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="81">
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="78" t="str">
+      <c r="O12" s="95" t="str">
         <f>CONCATENATE(IF(D12&gt;D9," * Element 5 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E12&gt;E9," * Element 5 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F12&gt;F9," * Element 5 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G12&gt;G9," * Element 5 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H12&gt;H9," * Element 5 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I12&gt;I9," * Element 5 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J12&gt;J9," * Element 5 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K12&gt;K9," * Element 5 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L12&gt;L9," * Element 5 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M12&gt;M9," * Element 5 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="77">
+      <c r="P12" s="96"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="88">
         <v>30</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="98" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
-      <c r="B13" s="189" t="s">
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A13" s="156"/>
+      <c r="B13" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="197">
+      <c r="C13" s="167">
         <v>6</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="81">
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="79" t="str">
+      <c r="O13" s="102" t="str">
         <f>CONCATENATE(IF(D13&gt;D10," * Element 6 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(E13&gt;E10," * Element 6 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(F13&gt;F10," * Element 6 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(G13&gt;G10," * Element 6 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(H13&gt;H10," * Element 6 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(I13&gt;I10," * Element 6 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(J13&gt;J10," * Element 6 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(K13&gt;K10," * Element 6 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(L13&gt;L10," * Element 6 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(M13&gt;M10," * Element 6 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 3"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="77">
+      <c r="P13" s="96"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="88">
         <v>31</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="T13" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U13" s="98" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
-      <c r="B14" s="186" t="s">
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A14" s="156"/>
+      <c r="B14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="197">
+      <c r="C14" s="167">
         <v>7</v>
       </c>
-      <c r="D14" s="192"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="81">
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="75" t="str">
+      <c r="O14" s="84" t="str">
         <f>CONCATENATE(IF(D14&gt;D11," * Element 7 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(E14&gt;E11," * Element 7 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(F14&gt;F11," * Element 7 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(G14&gt;G11," * Element 7 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(H14&gt;H11," * Element 7 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(I14&gt;I11," * Element 7 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(J14&gt;J11," * Element 7 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(K14&gt;K11," * Element 7 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(L14&gt;L11," * Element 7 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(M14&gt;M11," * Element 7 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 4"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="77">
+      <c r="P14" s="96"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="88">
         <v>29</v>
       </c>
-      <c r="T14" s="31" t="s">
+      <c r="T14" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="31" t="s">
+      <c r="U14" s="98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="176"/>
-      <c r="B15" s="199" t="s">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="27" thickBot="1">
+      <c r="A15" s="157"/>
+      <c r="B15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="198">
+      <c r="C15" s="168">
         <v>8</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="94">
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="78" t="str">
+      <c r="O15" s="95" t="str">
         <f>CONCATENATE(IF(D15&gt;D12," * Element 8 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(E15&gt;E12," * Element 8 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(F15&gt;F12," * Element 8 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(G15&gt;G12," * Element 8 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(H15&gt;H12," * Element 8 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(I15&gt;I12," * Element 8 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(J15&gt;J12," * Element 8 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(K15&gt;K12," * Element 8 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(L15&gt;L12," * Element 8 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(M15&gt;M12," * Element 8 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 5"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="77">
+      <c r="P15" s="96"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="88">
         <v>30</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="98" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="77">
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A16" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="88">
         <v>18</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="T16" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="31" t="s">
+      <c r="U16" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174" t="s">
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A17" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="185" t="s">
+      <c r="B17" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="166">
         <v>9</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="80">
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118">
         <f t="shared" ref="N17:N19" si="1">SUM(D17:M17)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="89" t="str">
+      <c r="O17" s="119" t="str">
         <f>CONCATENATE(IF(D17&gt;D9," * Element 9 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E17&gt;E9," * Element 9 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F17&gt;F9," * Element 9 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G17&gt;G9," * Element 9 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H17&gt;H9," * Element 9 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I17&gt;I9," * Element 9 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J17&gt;J9," * Element 9 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K17&gt;K9," * Element 9 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L17&gt;L9," * Element 9 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M17&gt;M9," * Element 9 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="77">
+      <c r="P17" s="96"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="88">
         <v>31</v>
       </c>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="31" t="s">
+      <c r="U17" s="98" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="175"/>
-      <c r="B18" s="186" t="s">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="197">
+      <c r="C18" s="167">
         <v>10</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="80">
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="90" t="str">
+      <c r="O18" s="120" t="str">
         <f>CONCATENATE(IF(D18&gt;D17," * Element 10 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(E18&gt;E17," * Element 10 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(F18&gt;F17," * Element 10 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(G18&gt;G17," * Element 10 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(H18&gt;H17," * Element 10 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(I18&gt;I17," * Element 10 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(J18&gt;J17," * Element 10 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(K18&gt;K17," * Element 10 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(L18&gt;L17," * Element 10 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(M18&gt;M17," * Element 10 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 9"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="77">
+      <c r="P18" s="96"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="88">
         <v>29</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="T18" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="U18" s="98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="186" t="s">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A19" s="156"/>
+      <c r="B19" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="197">
+      <c r="C19" s="167">
         <v>11</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="80">
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="91" t="str">
+      <c r="O19" s="121" t="str">
         <f>CONCATENATE(IF(D19&gt;D18," * Element 11 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(E19&gt;E18," * Element 11 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(F19&gt;F18," * Element 11 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(G19&gt;G18," * Element 11 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(H19&gt;H18," * Element 11 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(I19&gt;I18," * Element 11 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(J19&gt;J18," * Element 11 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(K19&gt;K18," * Element 11 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(L19&gt;L18," * Element 11 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(M19&gt;M18," * Element 11 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 10"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="77">
+      <c r="P19" s="96"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="88">
         <v>30</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="T19" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="U19" s="31" t="s">
+      <c r="U19" s="98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="186" t="s">
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A20" s="156"/>
+      <c r="B20" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="194"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="80">
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="118">
         <f t="shared" ref="N20:N26" si="2">SUM(D20:M20)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="89" t="str">
+      <c r="O20" s="119" t="str">
         <f>CONCATENATE(IF(D20&gt;D19," * Element 12a "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(E20&gt;E19," * Element 12a "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(F20&gt;F19," * Element 12a "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(G20&gt;G19," * Element 12a "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(H20&gt;H19," * Element 12a "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(I20&gt;I19," * Element 12a "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(J20&gt;J19," * Element 12a "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(K20&gt;K19," * Element 12a "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(L20&gt;L19," * Element 12a "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(M20&gt;M19," * Element 12a "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 11"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="77">
+      <c r="P20" s="96"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="88">
         <v>31</v>
       </c>
-      <c r="T20" s="31" t="s">
+      <c r="T20" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="U20" s="31" t="s">
+      <c r="U20" s="98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="175"/>
-      <c r="B21" s="186" t="s">
+    <row r="21" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A21" s="156"/>
+      <c r="B21" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="202" t="s">
+      <c r="C21" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="81">
+      <c r="D21" s="125"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="90" t="str">
+      <c r="O21" s="120" t="str">
         <f>CONCATENATE(IF(D21&gt;D20," * Element 12b "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(E21&gt;E20," * Element 12b "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(F21&gt;F20," * Element 12b "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(G21&gt;G20," * Element 12b "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(H21&gt;H20," * Element 12b "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(I21&gt;I20," * Element 12b "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(J21&gt;J20," * Element 12b "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(K21&gt;K20," * Element 12b "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(L21&gt;L20," * Element 12b "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(M21&gt;M20," * Element 12b "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12a"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="77">
+      <c r="P21" s="96"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="88">
         <v>29</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="40"/>
-    </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="175"/>
-      <c r="B22" s="186" t="s">
+      <c r="T21" s="126"/>
+      <c r="U21" s="127"/>
+    </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A22" s="156"/>
+      <c r="B22" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="80">
+      <c r="D22" s="128"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="91" t="str">
+      <c r="O22" s="121" t="str">
         <f>CONCATENATE(IF(D22&gt;D21," * Element 12c "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E22&gt;E21," * Element 12c "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F22&gt;F21," * Element 12c "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G22&gt;G21," * Element 12c "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H22&gt;H21," * Element 12c "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I22&gt;I21," * Element 12c "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J22&gt;J21," * Element 12c "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K22&gt;K21," * Element 12c "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L22&gt;L21," * Element 12c "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M22&gt;M21," * Element 12c "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="77">
+      <c r="P22" s="96"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="88">
         <v>30</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="40"/>
-    </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="175"/>
-      <c r="B23" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="202" t="s">
+      <c r="T22" s="126"/>
+      <c r="U22" s="127"/>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="27" thickBot="1">
+      <c r="A23" s="156"/>
+      <c r="B23" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="184">
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="89" t="str">
+      <c r="O23" s="119" t="str">
         <f>CONCATENATE(IF(D23&gt;D21," * Element 12d "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E23&gt;E21," * Element 12d "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F23&gt;F21," * Element 12d "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G23&gt;G21," * Element 12d "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H23&gt;H21," * Element 12d "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I23&gt;I21," * Element 12d "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J23&gt;J21," * Element 12d "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K23&gt;K21," * Element 12d "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L23&gt;L21," * Element 12d "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M23&gt;M21," * Element 12d "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="77">
+      <c r="P23" s="96"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="88">
         <v>31</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="40"/>
-    </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A24" s="175"/>
-      <c r="B24" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="197" t="s">
+      <c r="T23" s="126"/>
+      <c r="U23" s="127"/>
+    </row>
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="31.5">
+      <c r="A24" s="156"/>
+      <c r="B24" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="93">
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="90" t="str">
+      <c r="O24" s="120" t="str">
         <f>CONCATENATE(IF(D24&gt;D23," * Element 12e "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E24&gt;E23," * Element 12e "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F24&gt;F23," * Element 12e "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G24&gt;G23," * Element 12e "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H24&gt;H23," * Element 12e "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I24&gt;I23," * Element 12e "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J24&gt;J23," * Element 12e "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K24&gt;K23," * Element 12e "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L24&gt;L23," * Element 12e "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M24&gt;M23," * Element 12e "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="77">
+      <c r="P24" s="96"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="88">
         <v>29</v>
       </c>
-      <c r="T24" s="39"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="175"/>
-      <c r="B25" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="197" t="s">
+      <c r="T24" s="126"/>
+      <c r="U24" s="127"/>
+    </row>
+    <row r="25" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="80">
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="91" t="str">
+      <c r="O25" s="121" t="str">
         <f>CONCATENATE(IF(D25&gt;D23," * Element 12f "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E25&gt;E23," * Element 12f "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F25&gt;F23," * Element 12f "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G25&gt;G23," * Element 12f "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H25&gt;H23," * Element 12f "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I25&gt;I23," * Element 12f "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J25&gt;J23," * Element 12f "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K25&gt;K23," * Element 12f "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L25&gt;L23," * Element 12f "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M25&gt;M23," * Element 12f "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="77">
+      <c r="P25" s="96"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="88">
         <v>30</v>
       </c>
-      <c r="T25" s="39"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="176"/>
-      <c r="B26" s="190" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="198" t="s">
+      <c r="T25" s="126"/>
+      <c r="U25" s="127"/>
+    </row>
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A26" s="157"/>
+      <c r="B26" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="82">
+      <c r="D26" s="138"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="92" t="str">
+      <c r="O26" s="140" t="str">
         <f>CONCATENATE(IF(D26&gt;D23," * Element 12g "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E26&gt;E23," * Element 12g "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F26&gt;F23," * Element 12g "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G26&gt;G23," * Element 12g "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H26&gt;H23," * Element 12g "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I26&gt;I23," * Element 12g "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J26&gt;J23," * Element 12g "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K26&gt;K23," * Element 12g "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L26&gt;L23," * Element 12g "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M26&gt;M23," * Element 12g "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="77">
+      <c r="P26" s="141"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="142"/>
+      <c r="S26" s="88">
         <v>31</v>
       </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-    </row>
-    <row r="27" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="22" t="s">
+      <c r="T26" s="126"/>
+      <c r="U26" s="127"/>
+    </row>
+    <row r="27" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A27" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="35"/>
-    </row>
-    <row r="29" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A29" s="21"/>
-      <c r="B29" s="10"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="149"/>
+    </row>
+    <row r="29" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="7"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -5305,1202 +5346,1197 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:22" s="19" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+    <row r="30" spans="1:22" s="15" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A30" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="125" t="str">
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+    </row>
+    <row r="31" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A31" s="188" t="str">
         <f>CONCATENATE(P8)</f>
         <v/>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="104"/>
-    </row>
-    <row r="32" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="106"/>
-    </row>
-    <row r="33" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="127"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="106"/>
-    </row>
-    <row r="34" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="127"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="106"/>
-    </row>
-    <row r="35" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="127"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="106"/>
-    </row>
-    <row r="36" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="106"/>
-    </row>
-    <row r="37" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="127"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="106"/>
-    </row>
-    <row r="38" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="127"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="106"/>
-    </row>
-    <row r="39" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="127"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="106"/>
-    </row>
-    <row r="40" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="127"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="106"/>
-    </row>
-    <row r="41" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="127"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
-      <c r="T41" s="106"/>
-    </row>
-    <row r="42" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="127"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="106"/>
-    </row>
-    <row r="43" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="127"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="106"/>
-    </row>
-    <row r="44" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="127"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-      <c r="T44" s="106"/>
-    </row>
-    <row r="45" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="127"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-      <c r="T45" s="106"/>
-    </row>
-    <row r="46" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="127"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="106"/>
-    </row>
-    <row r="47" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="127"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="106"/>
-    </row>
-    <row r="48" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="127"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="106"/>
-    </row>
-    <row r="49" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="127"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="106"/>
-    </row>
-    <row r="50" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="127"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="106"/>
-    </row>
-    <row r="51" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="129"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="107"/>
-      <c r="P51" s="107"/>
-      <c r="Q51" s="107"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="108"/>
-    </row>
-    <row r="52" spans="1:22" s="17" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A52" s="121" t="s">
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A34" s="190"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="35" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A35" s="190"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="36" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A36" s="190"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="44"/>
+    </row>
+    <row r="37" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A37" s="190"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+    </row>
+    <row r="38" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A38" s="190"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+    </row>
+    <row r="39" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A39" s="190"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="44"/>
+    </row>
+    <row r="40" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A40" s="190"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="44"/>
+    </row>
+    <row r="41" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A41" s="190"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="44"/>
+    </row>
+    <row r="42" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A42" s="190"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A43" s="190"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="44"/>
+    </row>
+    <row r="44" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A44" s="190"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A45" s="190"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A46" s="190"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="191"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="44"/>
+    </row>
+    <row r="47" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A47" s="190"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="44"/>
+    </row>
+    <row r="48" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A48" s="190"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="191"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="44"/>
+    </row>
+    <row r="49" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A49" s="190"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="44"/>
+    </row>
+    <row r="50" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A50" s="190"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="44"/>
+    </row>
+    <row r="51" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A51" s="192"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="46"/>
+    </row>
+    <row r="52" spans="1:22" s="13" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A52" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="123"/>
-      <c r="O52" s="123"/>
-      <c r="P52" s="123"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="123"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-    </row>
-    <row r="53" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="109" t="str">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+    </row>
+    <row r="53" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A53" s="47" t="str">
         <f>CONCATENATE(,R8)</f>
         <v/>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
-      <c r="N53" s="115"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="115"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="116"/>
-    </row>
-    <row r="54" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="111"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="117"/>
-      <c r="P54" s="117"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="117"/>
-      <c r="S54" s="117"/>
-      <c r="T54" s="118"/>
-    </row>
-    <row r="55" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="111"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
-      <c r="O55" s="117"/>
-      <c r="P55" s="117"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="117"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="118"/>
-    </row>
-    <row r="56" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="117"/>
-      <c r="S56" s="117"/>
-      <c r="T56" s="118"/>
-    </row>
-    <row r="57" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="111"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="117"/>
-      <c r="S57" s="117"/>
-      <c r="T57" s="118"/>
-    </row>
-    <row r="58" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="118"/>
-    </row>
-    <row r="59" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="111"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="117"/>
-      <c r="R59" s="117"/>
-      <c r="S59" s="117"/>
-      <c r="T59" s="118"/>
-    </row>
-    <row r="60" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="111"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="117"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="118"/>
-    </row>
-    <row r="61" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="111"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="118"/>
-    </row>
-    <row r="62" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="111"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="118"/>
-    </row>
-    <row r="63" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="111"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
-      <c r="S63" s="117"/>
-      <c r="T63" s="118"/>
-    </row>
-    <row r="64" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="111"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="118"/>
-    </row>
-    <row r="65" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="111"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="117"/>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="117"/>
-      <c r="S65" s="117"/>
-      <c r="T65" s="118"/>
-    </row>
-    <row r="66" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="111"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="118"/>
-    </row>
-    <row r="67" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="111"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="117"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="118"/>
-    </row>
-    <row r="68" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="111"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="112"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="117"/>
-      <c r="R68" s="117"/>
-      <c r="S68" s="117"/>
-      <c r="T68" s="118"/>
-    </row>
-    <row r="69" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="111"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="117"/>
-      <c r="R69" s="117"/>
-      <c r="S69" s="117"/>
-      <c r="T69" s="118"/>
-    </row>
-    <row r="70" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="111"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="117"/>
-      <c r="L70" s="117"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="117"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="118"/>
-    </row>
-    <row r="71" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="112"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="117"/>
-      <c r="L71" s="117"/>
-      <c r="M71" s="117"/>
-      <c r="N71" s="117"/>
-      <c r="O71" s="117"/>
-      <c r="P71" s="117"/>
-      <c r="Q71" s="117"/>
-      <c r="R71" s="117"/>
-      <c r="S71" s="117"/>
-      <c r="T71" s="118"/>
-    </row>
-    <row r="72" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="111"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="117"/>
-      <c r="L72" s="117"/>
-      <c r="M72" s="117"/>
-      <c r="N72" s="117"/>
-      <c r="O72" s="117"/>
-      <c r="P72" s="117"/>
-      <c r="Q72" s="117"/>
-      <c r="R72" s="117"/>
-      <c r="S72" s="117"/>
-      <c r="T72" s="118"/>
-    </row>
-    <row r="73" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="111"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="112"/>
-      <c r="J73" s="112"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
-      <c r="S73" s="117"/>
-      <c r="T73" s="118"/>
-    </row>
-    <row r="74" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="111"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="112"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="117"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="117"/>
-      <c r="P74" s="117"/>
-      <c r="Q74" s="117"/>
-      <c r="R74" s="117"/>
-      <c r="S74" s="117"/>
-      <c r="T74" s="118"/>
-    </row>
-    <row r="75" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="111"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="112"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="112"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="117"/>
-      <c r="P75" s="117"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="117"/>
-      <c r="S75" s="117"/>
-      <c r="T75" s="118"/>
-    </row>
-    <row r="76" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="111"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="117"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="117"/>
-      <c r="S76" s="117"/>
-      <c r="T76" s="118"/>
-    </row>
-    <row r="77" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="117"/>
-      <c r="P77" s="117"/>
-      <c r="Q77" s="117"/>
-      <c r="R77" s="117"/>
-      <c r="S77" s="117"/>
-      <c r="T77" s="118"/>
-    </row>
-    <row r="78" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="111"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112"/>
-      <c r="I78" s="112"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="117"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="117"/>
-      <c r="O78" s="117"/>
-      <c r="P78" s="117"/>
-      <c r="Q78" s="117"/>
-      <c r="R78" s="117"/>
-      <c r="S78" s="117"/>
-      <c r="T78" s="118"/>
-    </row>
-    <row r="79" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="111"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="112"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="117"/>
-      <c r="L79" s="117"/>
-      <c r="M79" s="117"/>
-      <c r="N79" s="117"/>
-      <c r="O79" s="117"/>
-      <c r="P79" s="117"/>
-      <c r="Q79" s="117"/>
-      <c r="R79" s="117"/>
-      <c r="S79" s="117"/>
-      <c r="T79" s="118"/>
-    </row>
-    <row r="80" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="111"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="117"/>
-      <c r="L80" s="117"/>
-      <c r="M80" s="117"/>
-      <c r="N80" s="117"/>
-      <c r="O80" s="117"/>
-      <c r="P80" s="117"/>
-      <c r="Q80" s="117"/>
-      <c r="R80" s="117"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="118"/>
-    </row>
-    <row r="81" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="112"/>
-      <c r="G81" s="112"/>
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="112"/>
-      <c r="K81" s="117"/>
-      <c r="L81" s="117"/>
-      <c r="M81" s="117"/>
-      <c r="N81" s="117"/>
-      <c r="O81" s="117"/>
-      <c r="P81" s="117"/>
-      <c r="Q81" s="117"/>
-      <c r="R81" s="117"/>
-      <c r="S81" s="117"/>
-      <c r="T81" s="118"/>
-    </row>
-    <row r="82" spans="1:20" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="113"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="119"/>
-      <c r="M82" s="119"/>
-      <c r="N82" s="119"/>
-      <c r="O82" s="119"/>
-      <c r="P82" s="119"/>
-      <c r="Q82" s="119"/>
-      <c r="R82" s="119"/>
-      <c r="S82" s="119"/>
-      <c r="T82" s="120"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="54"/>
+    </row>
+    <row r="54" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
+    </row>
+    <row r="55" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="56"/>
+    </row>
+    <row r="56" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
+    </row>
+    <row r="57" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+    </row>
+    <row r="58" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
+    </row>
+    <row r="59" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="56"/>
+    </row>
+    <row r="60" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
+    </row>
+    <row r="61" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="56"/>
+    </row>
+    <row r="62" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
+    </row>
+    <row r="63" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
+    </row>
+    <row r="64" spans="1:22" ht="34.35" customHeight="1">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
+    </row>
+    <row r="65" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="56"/>
+    </row>
+    <row r="66" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="56"/>
+    </row>
+    <row r="67" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="56"/>
+    </row>
+    <row r="68" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="56"/>
+    </row>
+    <row r="69" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="56"/>
+    </row>
+    <row r="70" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="56"/>
+    </row>
+    <row r="71" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="56"/>
+    </row>
+    <row r="72" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="56"/>
+    </row>
+    <row r="73" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="56"/>
+    </row>
+    <row r="74" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="56"/>
+    </row>
+    <row r="75" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="56"/>
+    </row>
+    <row r="76" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="56"/>
+    </row>
+    <row r="77" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="56"/>
+    </row>
+    <row r="78" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="56"/>
+    </row>
+    <row r="79" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="56"/>
+    </row>
+    <row r="80" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="56"/>
+    </row>
+    <row r="81" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="56"/>
+    </row>
+    <row r="82" spans="1:20" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="58"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="37">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="P8:P26"/>
-    <mergeCell ref="R8:R26"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="K31:T51"/>
+    <mergeCell ref="A53:J82"/>
+    <mergeCell ref="K53:T82"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="K52:T52"/>
+    <mergeCell ref="A31:J51"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="C4:T4"/>
     <mergeCell ref="R6:R7"/>
@@ -6517,14 +6553,19 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="K31:T51"/>
-    <mergeCell ref="A53:J82"/>
-    <mergeCell ref="K53:T82"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="A31:J51"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="P8:P26"/>
+    <mergeCell ref="R8:R26"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1">
@@ -6853,7 +6894,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Numeric or abnormal value" error="Enter Numbers only between 0 and 99999" sqref="D8:M15 D17:M26" xr:uid="{B89F7BEB-D895-441B-9690-CF40DBC25312}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Numeric or abnormal value" error="Enter Numbers only between 0 and 99999" sqref="D8:M15 D17:M26">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
@@ -6867,12 +6908,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7110,18 +7151,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F27D016-ED29-4335-8911-6427F4BFA81E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9757ECA-E322-4B4F-A80B-F429838D8BF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7147,19 +7198,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9757ECA-E322-4B4F-A80B-F429838D8BF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F27D016-ED29-4335-8911-6427F4BFA81E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/web/JMW_Final.xlsx
+++ b/web/JMW_Final.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iFaGgMytSw3WRhteLhreGVGqss5WGckMXj/CQhjHz7WKhao9JvOm5lcIuxYJ9hnXJRJvgUuvNVmatr28IYYsqQ==" workbookSaltValue="e3bId4+rV4h1+wQmsUc4HA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-105" windowWidth="19395" windowHeight="10395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -18,10 +17,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instructions!$A$2:$E$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Feb!$A$1:$P$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Feb!$A$1:$P$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Feb!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>M</t>
   </si>
@@ -128,9 +127,6 @@
     <t>Codes</t>
   </si>
   <si>
-    <t>Jua Mtoto Wako Reporting Template  version 1.0.0</t>
-  </si>
-  <si>
     <t>Cross-sectional monitoring</t>
   </si>
   <si>
@@ -170,29 +166,6 @@
     <t>No. of unsuppressed CALHIV with satisfactory adherence after 3 months of EAC sessions</t>
   </si>
   <si>
-    <t>No. of unsuppressed CALHIV with repeat viral load done within the 4 months</t>
-  </si>
-  <si>
-    <t>No. of unsuppressed CALHIV with repeat Viral load test result within the 4 months</t>
-  </si>
-  <si>
-    <t>No. of CALHV suppressed after repeat VL within the 4 months</t>
-  </si>
-  <si>
-    <r>
-      <t>No. with repeat VL un</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>suppressed within the 4 months</t>
-    </r>
-  </si>
-  <si>
     <t>12a</t>
   </si>
   <si>
@@ -227,10 +200,6 @@
   </si>
   <si>
     <t>15-19 Yrs</t>
-  </si>
-  <si>
-    <t>Cohort/Longitudinal monitoring 
-(after 4 Months)</t>
   </si>
   <si>
     <t>Cohort Month</t>
@@ -431,87 +400,6 @@
     <t>Of the unsuppressed children enrolled in the  cohort month, count the number of CALHIV with satisfactory adherence after 3 months of EAC sessions.</t>
   </si>
   <si>
-    <t>Of all the unsuppressed CALHIV enrolled in the cohort month, count the number of CALHIV with repeat Viral load test done within the  4 months.</t>
-  </si>
-  <si>
-    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done, count the number with results within the 4 months.</t>
-  </si>
-  <si>
-    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done and results received, count the number suppressed (VL &lt; 1000 copies/mL) within the 4 months.</t>
-  </si>
-  <si>
-    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done and results received, count the number unsuppressed (VL ≥1000 copies/mL) within the 4 months.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is a count of all the CALHIV </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Enrolled in Cohort Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> being reported. These are CALHIVs enrolled to the JMW four months ago. Please refer to the Cohort Matrix to report the correct Cohort.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">From the number unsuppressed(VL ≥1000 copies/mL), count the number of CALHIVs switched to Higher ART Regimen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Second-line regimen- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Count of all CALHIV unsuppressed (VL ≥1000 copies/mL) switched to Second-line regimen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Third-line regimen- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Count of all CALHIV unsuppressed(VL ≥1000 copies/mL) switched to Third-line regimen</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">2. Cohort/Longitudinal monitoring </t>
   </si>
   <si>
@@ -525,6 +413,18 @@
   </si>
   <si>
     <t>Element</t>
+  </si>
+  <si>
+    <t>Jua Mtoto Wako Reporting Template  version 2.0.0</t>
+  </si>
+  <si>
+    <t>No. of unsuppressed CALHIV with repeat viral load done within the 6 months</t>
+  </si>
+  <si>
+    <t>No. of unsuppressed CALHIV with repeat Viral load test result within the 6 months</t>
+  </si>
+  <si>
+    <t>No. of CALHV suppressed after repeat VL within the 6 months</t>
   </si>
   <si>
     <r>
@@ -538,15 +438,90 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>suppressed within the 4 months</t>
+      <t>suppressed within the 6 months</t>
     </r>
+  </si>
+  <si>
+    <t>Transfer-out</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>Lost to follow-up</t>
+  </si>
+  <si>
+    <t>Transfer-in</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>9c</t>
+  </si>
+  <si>
+    <t>9d</t>
+  </si>
+  <si>
+    <t>This is a count of all the CALHIV Enrolled in Cohort Month being reported. These are CALHIVs enrolled to the JMW six months ago. Please refer to the Cohort Matrix to report the correct Cohort.</t>
+  </si>
+  <si>
+    <t>Of all the CALHIV enrolled in the cohort month, count the number of CALHIV who transferred out to another facility.</t>
+  </si>
+  <si>
+    <t>Of all the CALHIV enrolled in the cohort month, count the number of CALHIV who have died.</t>
+  </si>
+  <si>
+    <t>Of all the CALHIV enrolled in the cohort month, count the number of CALHIV who are lost to follow-up.</t>
+  </si>
+  <si>
+    <t>Count the number of CALHIV who were enrolled in Jua Mtoto Wako program in the same cohort month from another facility but transferred-in to this facility.</t>
+  </si>
+  <si>
+    <t>Of all the unsuppressed CALHIV enrolled in the cohort month, count the number of CALHIV with repeat Viral load test done within the  6 months.</t>
+  </si>
+  <si>
+    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done, count the number with results within the 6 months.</t>
+  </si>
+  <si>
+    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done and results received, count the number suppressed (VL &lt; 1000 copies/mL) within the 6 months.</t>
+  </si>
+  <si>
+    <t>No. with repeat VL unsuppressed within the 6 months</t>
+  </si>
+  <si>
+    <t>Of all the unsuppressed CALHIV enrolled in the cohort month with repeat VL test done and results received, count the number unsuppressed (VL ≥1000 copies/mL) within the 6 months.</t>
+  </si>
+  <si>
+    <t>Number of CALHIV unsuppressed (VL ≥1000 copies/mL) switched  to higher ART Regimen
+Disaggregated by: 
+(i) Second-line regimen 
+(ii) Third-line Regimen</t>
+  </si>
+  <si>
+    <t>From the number unsuppressed(VL ≥1000 copies/mL), count the number of CALHIVs switched to Higher ART Regimen.
+Second-line regimen- Count of all CALHIV unsuppressed (VL ≥1000 copies/mL) switched to Second-line regimen
+Third-line regimen- Count of all CALHIV unsuppressed(VL ≥1000 copies/mL) switched to Third-line regimen</t>
+  </si>
+  <si>
+    <t>Cohort/Longitudinal monitoring 
+(after 6 Months)</t>
+  </si>
+  <si>
+    <t>Cumulative Indicators Reported Last Month</t>
+  </si>
+  <si>
+    <t>Reported Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="53">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,12 +674,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
     <font>
@@ -919,6 +888,42 @@
       <name val="Browallia New"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Browallia New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Browallia New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1012,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -1280,19 +1285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="9"/>
       </left>
@@ -1311,19 +1303,6 @@
       </left>
       <right style="medium">
         <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1351,19 +1330,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2049,12 +2015,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2097,74 +2178,328 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2172,41 +2507,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2214,478 +2531,372 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -2769,76 +2980,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -3673,8 +3814,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="66"/>
-      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3989,306 +4130,335 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="48" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="143" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="25.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="141">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A4" s="158"/>
+      <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="C4" s="141">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A5" s="158"/>
+      <c r="B5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="141">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A6" s="158"/>
+      <c r="B6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="141">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" s="21" customFormat="1" ht="40.5">
+      <c r="A7" s="158"/>
+      <c r="B7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="141">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A8" s="158"/>
+      <c r="B8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="141">
+        <v>6</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="40.5">
+      <c r="A9" s="158"/>
+      <c r="B9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="141">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A4" s="37"/>
-      <c r="B4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="26">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" s="21" customFormat="1" ht="27">
+      <c r="A10" s="158"/>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="141">
+        <v>8</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A5" s="37"/>
-      <c r="B5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="26">
-        <v>3</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A11" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="141">
+        <v>9</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="27">
+      <c r="A12" s="160"/>
+      <c r="B12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A13" s="160"/>
+      <c r="B13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A14" s="160"/>
+      <c r="B14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="27">
+      <c r="A15" s="160"/>
+      <c r="B15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.5">
+      <c r="A16" s="160"/>
+      <c r="B16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="141">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A6" s="37"/>
-      <c r="B6" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="26">
-        <v>4</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="27">
+      <c r="A17" s="160"/>
+      <c r="B17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="141">
+        <v>11</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" s="21" customFormat="1" ht="40.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="26">
-        <v>5</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A8" s="37"/>
-      <c r="B8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="26">
-        <v>6</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="40.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="26">
-        <v>7</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" s="21" customFormat="1" ht="27">
-      <c r="A10" s="37"/>
-      <c r="B10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="26">
-        <v>8</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5">
-      <c r="A11" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="26">
-        <v>9</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.5">
-      <c r="A12" s="37"/>
-      <c r="B12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="26">
-        <v>10</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" ht="27">
-      <c r="A13" s="37"/>
-      <c r="B13" s="25" t="s">
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A18" s="160"/>
+      <c r="B18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="26">
-        <v>11</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="27">
-      <c r="A14" s="37"/>
-      <c r="B14" s="25" t="s">
+      <c r="D18" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="160"/>
+      <c r="B19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="27">
-      <c r="A15" s="37"/>
-      <c r="B15" s="25" t="s">
+      <c r="D19" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.65" customHeight="1">
+      <c r="A20" s="160"/>
+      <c r="B20" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" ht="27">
-      <c r="A16" s="37"/>
-      <c r="B16" s="25" t="s">
+      <c r="D20" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="139"/>
+    </row>
+    <row r="21" spans="1:5" ht="27">
+      <c r="A21" s="160"/>
+      <c r="B21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="27">
-      <c r="A17" s="37"/>
-      <c r="B17" s="25" t="s">
+      <c r="D21" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="108">
+      <c r="A22" s="161"/>
+      <c r="B22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.65" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="32"/>
+      <c r="D22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="30"/>
     </row>
     <row r="51" spans="1:4" s="19" customFormat="1">
       <c r="A51" s="18"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" s="19" customFormat="1">
       <c r="A52" s="18"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" s="19" customFormat="1">
       <c r="A53" s="18"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="143"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" s="19" customFormat="1">
       <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="143"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="19" customFormat="1">
       <c r="A55" s="18"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E2"/>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A11:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4301,2242 +4471,2467 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25" style="17" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="114.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" style="33" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="13" width="7.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="7.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12.7109375" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.140625" style="6" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="31.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.85546875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="9.140625" style="1"/>
-    <col min="35" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16" style="11" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6" style="11" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="121.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="31.42578125" style="1" customWidth="1"/>
+    <col min="26" max="35" width="9.140625" style="1"/>
+    <col min="36" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="185" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:25" s="113" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172" t="s">
+      <c r="C1" s="203"/>
+      <c r="D1" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174" t="s">
+      <c r="E1" s="205"/>
+      <c r="F1" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="172" t="s">
+      <c r="G1" s="207"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="176" t="s">
+      <c r="L1" s="205"/>
+      <c r="M1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="177" t="s">
+      <c r="N1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="178">
+      <c r="O1" s="191">
         <v>2020</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="183">
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="111">
         <v>0</v>
       </c>
-      <c r="V1" s="184"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="V1" s="111"/>
+      <c r="W1" s="112"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
+      <c r="A2" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="63">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="34">
         <v>1</v>
       </c>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="34.35" hidden="1" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="42">
         <v>1</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="42">
         <v>1</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="63">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="34">
         <v>2</v>
       </c>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A4" s="153" t="s">
+      <c r="V3" s="34"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A4" s="208" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="209"/>
+      <c r="C4" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="34">
+        <v>3</v>
+      </c>
+      <c r="V4" s="34"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A5" s="196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="44">
+        <v>18</v>
+      </c>
+      <c r="V5" s="34"/>
+    </row>
+    <row r="6" spans="1:25" s="117" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A6" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="180"/>
+      <c r="J6" s="176" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="177"/>
+      <c r="L6" s="176" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="177"/>
+      <c r="N6" s="174" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="210" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="181" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="114">
+        <v>19</v>
+      </c>
+      <c r="T6" s="115"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+    </row>
+    <row r="7" spans="1:25" s="117" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="175"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="114">
+        <v>20</v>
+      </c>
+      <c r="T7" s="115"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A8" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="63">
-        <v>3</v>
-      </c>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="B8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="78">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="202" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A6" s="194" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="195" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="158" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="160" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="162"/>
-      <c r="L6" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="196" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="197" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="198" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="199">
-        <v>19</v>
-      </c>
-      <c r="T6" s="200"/>
-      <c r="U6" s="201"/>
-    </row>
-    <row r="7" spans="1:22" s="202" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="164" t="s">
+      <c r="C8" s="104">
         <v>1</v>
       </c>
-      <c r="F7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="165"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="199">
-        <v>20</v>
-      </c>
-      <c r="T7" s="200"/>
-      <c r="U7" s="201"/>
-    </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A8" s="155" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="166">
-        <v>1</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83">
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49">
         <f>SUM(D8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="84" t="str">
+      <c r="O8" s="50" t="str">
         <f>CONCATENATE(IF(D8&gt;D9," * Element 1 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E8&gt;E9," * Element 1 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F8&gt;F9," * Element 1 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G8&gt;G9," * Element 1 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H8&gt;H9," * Element 1 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I8&gt;I9," * Element 1 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J8&gt;J9," * Element 1 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K8&gt;K9," * Element 1 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L8&gt;L9," * Element 1 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M8&gt;M9," * Element 1 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P8" s="85" t="str">
-        <f>CONCATENATE(O8,O9,O10,O11,O12,O13,O14,O15,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26)</f>
+      <c r="P8" s="168" t="str">
+        <f>CONCATENATE(O8,O9,O10,O11,O12,O13,O14,O15,O17,O22,O23,O24,O25,O26,O27,O28,O29,O30,O18,O19,O20)</f>
         <v/>
       </c>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="87" t="str">
-        <f>CONCATENATE(Q10,Q9,Q8,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26)</f>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="171" t="str">
+        <f>CONCATENATE(Q10,Q9,Q8,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30)</f>
         <v/>
       </c>
-      <c r="S8" s="88">
+      <c r="S8" s="52">
         <v>29</v>
       </c>
-      <c r="T8" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="89" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="167">
+      <c r="T8" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="150"/>
+      <c r="W8" s="214" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="212" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="213"/>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" ht="26.65" customHeight="1" thickBot="1">
+      <c r="A9" s="184"/>
+      <c r="B9" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="105">
         <v>2</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94">
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58">
         <f t="shared" ref="N9:N15" si="0">SUM(D9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="88">
+      <c r="O9" s="59" t="str">
+        <f>IF(N9&lt;Y10,"*"&amp;B9&amp;" reported this month should be more than or equal to the value reported last month"&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="52">
         <v>30</v>
       </c>
-      <c r="T9" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="167">
+      <c r="T9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="149"/>
+      <c r="W9" s="215"/>
+      <c r="X9" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A10" s="184"/>
+      <c r="B10" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="105">
         <v>3</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="94">
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="102" t="str">
+      <c r="O10" s="64" t="str">
         <f>CONCATENATE(IF(D11&lt;D10," * Element 4 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(E11&lt;E10," * Element 4 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(F11&lt;F10," * Element 4 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(G11&lt;G10," * Element 4 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(H11&lt;H10," * Element 4 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(I11&lt;I10," * Element 4 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(J11&lt;J10," * Element 4 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(K11&lt;K10," * Element 4 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(L11&lt;L10," * Element 4 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than Element 3"&amp;CHAR(10),""),IF(M11&lt;M10," * Element 4 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than Element 3"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="88">
+      <c r="P10" s="169"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="52">
         <v>31</v>
       </c>
-      <c r="T10" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="167">
+      <c r="T10" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="149"/>
+      <c r="W10" s="151">
+        <f>C9</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="146" t="str">
+        <f>B9</f>
+        <v xml:space="preserve">Cumulative no. of unsuppressed CALHIV </v>
+      </c>
+      <c r="Y10" s="152"/>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A11" s="184"/>
+      <c r="B11" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="105">
         <v>4</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="94">
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="84" t="str">
+      <c r="O11" s="50" t="str">
         <f>CONCATENATE(IF(D11&gt;D9," * Element 4 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E11&gt;E9," * Element 4 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F11&gt;F9," * Element 4 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G11&gt;G9," * Element 4 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H11&gt;H9," * Element 4 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I11&gt;I9," * Element 4 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J11&gt;J9," * Element 4 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K11&gt;K9," * Element 4 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L11&gt;L9," * Element 4 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M11&gt;M9," * Element 4 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="88">
+      <c r="P11" s="169"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="52">
         <v>29</v>
       </c>
-      <c r="T11" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="167">
+      <c r="T11" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="149"/>
+      <c r="W11" s="153">
+        <f>C11</f>
+        <v>4</v>
+      </c>
+      <c r="X11" s="145" t="str">
+        <f>B11</f>
+        <v>No. of unsuppressed CALHIVs cumulatively enrolled in JMW (JMW_CALHIV_ CURR)</v>
+      </c>
+      <c r="Y11" s="154"/>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="26.65" customHeight="1" thickBot="1">
+      <c r="A12" s="184"/>
+      <c r="B12" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="105">
         <v>5</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="94">
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="95" t="str">
+      <c r="O12" s="59" t="str">
         <f>CONCATENATE(IF(D12&gt;D9," * Element 5 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E12&gt;E9," * Element 5 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F12&gt;F9," * Element 5 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G12&gt;G9," * Element 5 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H12&gt;H9," * Element 5 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I12&gt;I9," * Element 5 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J12&gt;J9," * Element 5 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K12&gt;K9," * Element 5 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L12&gt;L9," * Element 5 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M12&gt;M9," * Element 5 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="88">
+      <c r="P12" s="169"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="52">
         <v>30</v>
       </c>
-      <c r="T12" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="167">
+      <c r="T12" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="149"/>
+      <c r="W12" s="155">
+        <f>C14</f>
+        <v>7</v>
+      </c>
+      <c r="X12" s="156" t="str">
+        <f>B14</f>
+        <v>Cumulative no. of unsuppressed CALHIV with Root Cause Analysis (baseline assessment/characterization) done</v>
+      </c>
+      <c r="Y12" s="157"/>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A13" s="184"/>
+      <c r="B13" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="105">
         <v>6</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="94">
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="102" t="str">
+      <c r="O13" s="64" t="str">
         <f>CONCATENATE(IF(D13&gt;D10," * Element 6 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(E13&gt;E10," * Element 6 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(F13&gt;F10," * Element 6 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(G13&gt;G10," * Element 6 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(H13&gt;H10," * Element 6 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(I13&gt;I10," * Element 6 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(J13&gt;J10," * Element 6 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(K13&gt;K10," * Element 6 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(L13&gt;L10," * Element 6 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 3"&amp;CHAR(10),""),IF(M13&gt;M10," * Element 6 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 3"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="88">
+      <c r="P13" s="169"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="52">
         <v>31</v>
       </c>
-      <c r="T13" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="U13" s="98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A14" s="156"/>
-      <c r="B14" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="167">
+      <c r="T13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="149"/>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A14" s="184"/>
+      <c r="B14" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="105">
         <v>7</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94">
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="84" t="str">
+      <c r="O14" s="50" t="str">
         <f>CONCATENATE(IF(D14&gt;D11," * Element 7 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(E14&gt;E11," * Element 7 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(F14&gt;F11," * Element 7 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(G14&gt;G11," * Element 7 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(H14&gt;H11," * Element 7 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(I14&gt;I11," * Element 7 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(J14&gt;J11," * Element 7 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(K14&gt;K11," * Element 7 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(L14&gt;L11," * Element 7 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 4"&amp;CHAR(10),""),IF(M14&gt;M11," * Element 7 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 4"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="88">
+      <c r="P14" s="169"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="52">
         <v>29</v>
       </c>
-      <c r="T14" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="27" thickBot="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="168">
+      <c r="T14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" s="149"/>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="27" thickBot="1">
+      <c r="A15" s="185"/>
+      <c r="B15" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="106">
         <v>8</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="108">
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="95" t="str">
+      <c r="O15" s="59" t="str">
         <f>CONCATENATE(IF(D15&gt;D12," * Element 8 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(E15&gt;E12," * Element 8 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(F15&gt;F12," * Element 8 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(G15&gt;G12," * Element 8 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(H15&gt;H12," * Element 8 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(I15&gt;I12," * Element 8 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(J15&gt;J12," * Element 8 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(K15&gt;K12," * Element 8 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(L15&gt;L12," * Element 8 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 5"&amp;CHAR(10),""),IF(M15&gt;M12," * Element 8 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 5"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="88">
+      <c r="P15" s="169"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="52">
         <v>30</v>
       </c>
-      <c r="T15" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A16" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="88">
+      <c r="T15" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="149"/>
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A16" s="186" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="52">
         <v>18</v>
       </c>
-      <c r="T16" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A17" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="166">
+      <c r="T16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="149"/>
+    </row>
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A17" s="232" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="104">
         <v>9</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118">
-        <f t="shared" ref="N17:N19" si="1">SUM(D17:M17)</f>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73">
+        <f t="shared" ref="N17:N23" si="1">SUM(D17:M17)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="119" t="str">
+      <c r="O17" s="74" t="str">
         <f>CONCATENATE(IF(D17&gt;D9," * Element 9 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(E17&gt;E9," * Element 9 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(F17&gt;F9," * Element 9 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(G17&gt;G9," * Element 9 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(H17&gt;H9," * Element 9 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(I17&gt;I9," * Element 9 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(J17&gt;J9," * Element 9 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(K17&gt;K9," * Element 9 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(L17&gt;L9," * Element 9 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 2"&amp;CHAR(10),""),IF(M17&gt;M9," * Element 9 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 2"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="88">
+      <c r="P17" s="169"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="52">
         <v>31</v>
       </c>
-      <c r="T17" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="U17" s="98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A18" s="156"/>
-      <c r="B18" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="167">
-        <v>10</v>
-      </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="118">
+      <c r="T17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="149"/>
+    </row>
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A18" s="233"/>
+      <c r="B18" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="120" t="str">
-        <f>CONCATENATE(IF(D18&gt;D17," * Element 10 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(E18&gt;E17," * Element 10 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(F18&gt;F17," * Element 10 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(G18&gt;G17," * Element 10 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(H18&gt;H17," * Element 10 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(I18&gt;I17," * Element 10 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(J18&gt;J17," * Element 10 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(K18&gt;K17," * Element 10 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(L18&gt;L17," * Element 10 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(M18&gt;M17," * Element 10 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 9"&amp;CHAR(10),""))</f>
+      <c r="O18" s="74" t="str">
+        <f>CONCATENATE(IF((D18+D19+D20+D21)&gt;D17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$D$6&amp;" "&amp;$D$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((E18+E19+E20+E21)&gt;E17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$D$6&amp;" "&amp;$E$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((F18+F19+F20+F21)&gt;F17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$F$6&amp;" "&amp;$F$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((G18+G19+G20+G21)&gt;G17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$F$6&amp;" "&amp;$G$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((H18+H19+H20+H21)&gt;H17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$H$6&amp;" "&amp;$H$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((I18+I19+I20+I21)&gt;I17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$H$6&amp;" "&amp;$I$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((J18+J19+J20+J21)&gt;J17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$J$6&amp;" "&amp;$J$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((K18+K19+K20+K21)&gt;K17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$J$6&amp;" "&amp;$K$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((L18+L19+L20+L21)&gt;L17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$L$6&amp;" "&amp;$L$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""),IF((M18+M19+M20+M21)&gt;M17," * Element "&amp;C18&amp;" + Element "&amp;C19&amp;" + Element "&amp;C20&amp;" + Element "&amp;C21&amp;" For Age  "&amp;$L$6&amp;" "&amp;$M$7&amp;" should not be more than Element "&amp;C17&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="88">
-        <v>29</v>
-      </c>
-      <c r="T18" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="U18" s="98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
-      <c r="A19" s="156"/>
-      <c r="B19" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="167">
-        <v>11</v>
-      </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="118">
+      <c r="P18" s="169"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="149"/>
+    </row>
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A19" s="233"/>
+      <c r="B19" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="121" t="str">
-        <f>CONCATENATE(IF(D19&gt;D18," * Element 11 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(E19&gt;E18," * Element 11 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(F19&gt;F18," * Element 11 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(G19&gt;G18," * Element 11 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(H19&gt;H18," * Element 11 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(I19&gt;I18," * Element 11 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(J19&gt;J18," * Element 11 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(K19&gt;K18," * Element 11 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(L19&gt;L18," * Element 11 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(M19&gt;M18," * Element 11 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 10"&amp;CHAR(10),""))</f>
+      <c r="O19" s="74" t="str">
+        <f>IF(N11&lt;Y11,"*"&amp;B11&amp;" reported this month should be more than or equal to the value reported last month"&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="88">
+      <c r="P19" s="169"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" s="149"/>
+    </row>
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A20" s="233"/>
+      <c r="B20" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="74" t="str">
+        <f>IF(N14&lt;Y12,"*"&amp;B14&amp;" reported this month should be more than or equal to the value reported last month"&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="149"/>
+    </row>
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A21" s="233"/>
+      <c r="B21" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="74"/>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+    </row>
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A22" s="233"/>
+      <c r="B22" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="105">
+        <v>10</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="75" t="str">
+        <f>CONCATENATE(IF(D22&gt;D17," * Element 10 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(E22&gt;E17," * Element 10 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(F22&gt;F17," * Element 10 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(G22&gt;G17," * Element 10 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(H22&gt;H17," * Element 10 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(I22&gt;I17," * Element 10 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(J22&gt;J17," * Element 10 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(K22&gt;K17," * Element 10 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(L22&gt;L17," * Element 10 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 9"&amp;CHAR(10),""),IF(M22&gt;M17," * Element 10 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 9"&amp;CHAR(10),""))</f>
+        <v/>
+      </c>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="52">
+        <v>29</v>
+      </c>
+      <c r="T22" s="81"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+    </row>
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A23" s="233"/>
+      <c r="B23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="105">
+        <v>11</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="76" t="str">
+        <f>CONCATENATE(IF(D23&gt;D22," * Element 11 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(E23&gt;E22," * Element 11 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(F23&gt;F22," * Element 11 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(G23&gt;G22," * Element 11 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(H23&gt;H22," * Element 11 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(I23&gt;I22," * Element 11 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(J23&gt;J22," * Element 11 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(K23&gt;K22," * Element 11 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(L23&gt;L22," * Element 11 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 10"&amp;CHAR(10),""),IF(M23&gt;M22," * Element 11 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 10"&amp;CHAR(10),""))</f>
+        <v/>
+      </c>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="52">
         <v>30</v>
       </c>
-      <c r="T19" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="90" t="s">
+      <c r="T23" s="81"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+    </row>
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A24" s="233"/>
+      <c r="B24" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="73">
+        <f t="shared" ref="N24:N30" si="2">SUM(D24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="74" t="str">
+        <f>CONCATENATE(IF(D24&gt;D23," * Element 12a "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(E24&gt;E23," * Element 12a "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(F24&gt;F23," * Element 12a "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(G24&gt;G23," * Element 12a "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(H24&gt;H23," * Element 12a "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(I24&gt;I23," * Element 12a "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(J24&gt;J23," * Element 12a "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(K24&gt;K23," * Element 12a "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(L24&gt;L23," * Element 12a "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(M24&gt;M23," * Element 12a "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 11"&amp;CHAR(10),""))</f>
+        <v/>
+      </c>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="52">
+        <v>31</v>
+      </c>
+      <c r="T24" s="81"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+    </row>
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1">
+      <c r="A25" s="233"/>
+      <c r="B25" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="167" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="118">
-        <f t="shared" ref="N20:N26" si="2">SUM(D20:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="119" t="str">
-        <f>CONCATENATE(IF(D20&gt;D19," * Element 12a "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(E20&gt;E19," * Element 12a "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(F20&gt;F19," * Element 12a "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(G20&gt;G19," * Element 12a "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(H20&gt;H19," * Element 12a "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(I20&gt;I19," * Element 12a "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(J20&gt;J19," * Element 12a "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(K20&gt;K19," * Element 12a "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(L20&gt;L19," * Element 12a "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 11"&amp;CHAR(10),""),IF(M20&gt;M19," * Element 12a "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 11"&amp;CHAR(10),""))</f>
-        <v/>
-      </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="88">
-        <v>31</v>
-      </c>
-      <c r="T20" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="U20" s="98" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A21" s="156"/>
-      <c r="B21" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="94">
+      <c r="D25" s="80"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="120" t="str">
-        <f>CONCATENATE(IF(D21&gt;D20," * Element 12b "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(E21&gt;E20," * Element 12b "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(F21&gt;F20," * Element 12b "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(G21&gt;G20," * Element 12b "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(H21&gt;H20," * Element 12b "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(I21&gt;I20," * Element 12b "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(J21&gt;J20," * Element 12b "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(K21&gt;K20," * Element 12b "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(L21&gt;L20," * Element 12b "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(M21&gt;M20," * Element 12b "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12a"&amp;CHAR(10),""))</f>
+      <c r="O25" s="75" t="str">
+        <f>CONCATENATE(IF(D25&gt;D24," * Element 12b "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(E25&gt;E24," * Element 12b "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(F25&gt;F24," * Element 12b "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(G25&gt;G24," * Element 12b "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(H25&gt;H24," * Element 12b "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(I25&gt;I24," * Element 12b "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(J25&gt;J24," * Element 12b "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(K25&gt;K24," * Element 12b "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(L25&gt;L24," * Element 12b "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12a"&amp;CHAR(10),""),IF(M25&gt;M24," * Element 12b "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12a"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="88">
+      <c r="P25" s="169"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="52">
         <v>29</v>
       </c>
-      <c r="T21" s="126"/>
-      <c r="U21" s="127"/>
-    </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="169" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="118">
+      <c r="T25" s="81"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+    </row>
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A26" s="233"/>
+      <c r="B26" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="121" t="str">
-        <f>CONCATENATE(IF(D22&gt;D21," * Element 12c "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E22&gt;E21," * Element 12c "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F22&gt;F21," * Element 12c "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G22&gt;G21," * Element 12c "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H22&gt;H21," * Element 12c "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I22&gt;I21," * Element 12c "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J22&gt;J21," * Element 12c "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K22&gt;K21," * Element 12c "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L22&gt;L21," * Element 12c "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M22&gt;M21," * Element 12c "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
+      <c r="O26" s="76" t="str">
+        <f>CONCATENATE(IF(D26&gt;D25," * Element 12c "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E26&gt;E25," * Element 12c "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F26&gt;F25," * Element 12c "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G26&gt;G25," * Element 12c "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H26&gt;H25," * Element 12c "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I26&gt;I25," * Element 12c "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J26&gt;J25," * Element 12c "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K26&gt;K25," * Element 12c "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L26&gt;L25," * Element 12c "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M26&gt;M25," * Element 12c "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="88">
+      <c r="P26" s="169"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="52">
         <v>30</v>
       </c>
-      <c r="T22" s="126"/>
-      <c r="U22" s="127"/>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="27" thickBot="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133">
+      <c r="T26" s="81"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+    </row>
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="27" thickBot="1">
+      <c r="A27" s="233"/>
+      <c r="B27" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="119" t="str">
-        <f>CONCATENATE(IF(D23&gt;D21," * Element 12d "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E23&gt;E21," * Element 12d "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F23&gt;F21," * Element 12d "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G23&gt;G21," * Element 12d "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H23&gt;H21," * Element 12d "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I23&gt;I21," * Element 12d "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J23&gt;J21," * Element 12d "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K23&gt;K21," * Element 12d "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L23&gt;L21," * Element 12d "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M23&gt;M21," * Element 12d "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
+      <c r="O27" s="74" t="str">
+        <f>CONCATENATE(IF(D27&gt;D25," * Element 12d "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(E27&gt;E25," * Element 12d "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(F27&gt;F25," * Element 12d "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(G27&gt;G25," * Element 12d "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(H27&gt;H25," * Element 12d "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(I27&gt;I25," * Element 12d "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(J27&gt;J25," * Element 12d "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(K27&gt;K25," * Element 12d "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(L27&gt;L25," * Element 12d "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12b"&amp;CHAR(10),""),IF(M27&gt;M25," * Element 12d "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12b"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="88">
+      <c r="P27" s="169"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="52">
         <v>31</v>
       </c>
-      <c r="T23" s="126"/>
-      <c r="U23" s="127"/>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="31.5">
-      <c r="A24" s="156"/>
-      <c r="B24" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="167" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="83">
+      <c r="T27" s="98"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+    </row>
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="31.5">
+      <c r="A28" s="233"/>
+      <c r="B28" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="120" t="str">
-        <f>CONCATENATE(IF(D24&gt;D23," * Element 12e "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E24&gt;E23," * Element 12e "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F24&gt;F23," * Element 12e "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G24&gt;G23," * Element 12e "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H24&gt;H23," * Element 12e "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I24&gt;I23," * Element 12e "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J24&gt;J23," * Element 12e "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K24&gt;K23," * Element 12e "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L24&gt;L23," * Element 12e "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M24&gt;M23," * Element 12e "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
+      <c r="O28" s="75" t="str">
+        <f>CONCATENATE(IF(D28&gt;D27," * Element 12e "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E28&gt;E27," * Element 12e "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F28&gt;F27," * Element 12e "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G28&gt;G27," * Element 12e "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H28&gt;H27," * Element 12e "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I28&gt;I27," * Element 12e "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J28&gt;J27," * Element 12e "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K28&gt;K27," * Element 12e "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L28&gt;L27," * Element 12e "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M28&gt;M27," * Element 12e "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="88">
+      <c r="P28" s="169"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="52">
         <v>29</v>
       </c>
-      <c r="T24" s="126"/>
-      <c r="U24" s="127"/>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" ht="26.65" customHeight="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="118">
+      <c r="T28" s="1"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="26.65" customHeight="1">
+      <c r="A29" s="233"/>
+      <c r="B29" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="121" t="str">
-        <f>CONCATENATE(IF(D25&gt;D23," * Element 12f "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E25&gt;E23," * Element 12f "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F25&gt;F23," * Element 12f "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G25&gt;G23," * Element 12f "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H25&gt;H23," * Element 12f "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I25&gt;I23," * Element 12f "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J25&gt;J23," * Element 12f "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K25&gt;K23," * Element 12f "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L25&gt;L23," * Element 12f "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M25&gt;M23," * Element 12f "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
+      <c r="O29" s="76" t="str">
+        <f>CONCATENATE(IF(D29&gt;D27," * Element 12f "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E29&gt;E27," * Element 12f "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F29&gt;F27," * Element 12f "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G29&gt;G27," * Element 12f "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H29&gt;H27," * Element 12f "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I29&gt;I27," * Element 12f "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J29&gt;J27," * Element 12f "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K29&gt;K27," * Element 12f "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L29&gt;L27," * Element 12f "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M29&gt;M27," * Element 12f "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="88">
+      <c r="P29" s="169"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="52">
         <v>30</v>
       </c>
-      <c r="T25" s="126"/>
-      <c r="U25" s="127"/>
-    </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A26" s="157"/>
-      <c r="B26" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="168" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="139">
+      <c r="T29" s="1"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A30" s="234"/>
+      <c r="B30" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="140" t="str">
-        <f>CONCATENATE(IF(D26&gt;D23," * Element 12g "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E26&gt;E23," * Element 12g "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F26&gt;F23," * Element 12g "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G26&gt;G23," * Element 12g "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H26&gt;H23," * Element 12g "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I26&gt;I23," * Element 12g "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J26&gt;J23," * Element 12g "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K26&gt;K23," * Element 12g "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L26&gt;L23," * Element 12g "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M26&gt;M23," * Element 12g "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
+      <c r="O30" s="95" t="str">
+        <f>CONCATENATE(IF(D30&gt;D27," * Element 12g "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(E30&gt;E27," * Element 12g "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(F30&gt;F27," * Element 12g "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(G30&gt;G27," * Element 12g "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(H30&gt;H27," * Element 12g "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(I30&gt;I27," * Element 12g "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(J30&gt;J27," * Element 12g "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(K30&gt;K27," * Element 12g "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(L30&gt;L27," * Element 12g "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Element 12d"&amp;CHAR(10),""),IF(M30&gt;M27," * Element 12g "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Element 12d"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="142"/>
-      <c r="S26" s="88">
+      <c r="P30" s="170"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="52">
         <v>31</v>
       </c>
-      <c r="T26" s="126"/>
-      <c r="U26" s="127"/>
-    </row>
-    <row r="27" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A27" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="149"/>
-    </row>
-    <row r="29" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="7"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" s="15" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A30" s="186" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="40"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
     </row>
-    <row r="31" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A31" s="188" t="str">
+    <row r="31" spans="1:27" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A31" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="97"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="98"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="33" spans="1:27" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="7"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" s="15" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A34" s="216" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A35" s="226" t="str">
         <f>CONCATENATE(P8)</f>
         <v/>
       </c>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
-    </row>
-    <row r="32" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A32" s="190"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A33" s="190"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-    </row>
-    <row r="34" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A34" s="190"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-    </row>
-    <row r="35" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A35" s="190"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-    </row>
-    <row r="36" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A36" s="190"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
-    </row>
-    <row r="37" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A37" s="190"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
-    </row>
-    <row r="38" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A38" s="190"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-    </row>
-    <row r="39" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A39" s="190"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
-    </row>
-    <row r="40" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A40" s="190"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
-    </row>
-    <row r="41" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A41" s="190"/>
-      <c r="B41" s="191"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="44"/>
-    </row>
-    <row r="42" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A42" s="190"/>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="44"/>
-    </row>
-    <row r="43" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A43" s="190"/>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="44"/>
-    </row>
-    <row r="44" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A44" s="190"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
-    </row>
-    <row r="45" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A45" s="190"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="44"/>
-    </row>
-    <row r="46" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="44"/>
-    </row>
-    <row r="47" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A47" s="190"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="44"/>
-    </row>
-    <row r="48" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A48" s="190"/>
-      <c r="B48" s="191"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="44"/>
-    </row>
-    <row r="49" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A49" s="190"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="44"/>
-    </row>
-    <row r="50" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A50" s="190"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="191"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="44"/>
-    </row>
-    <row r="51" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A51" s="192"/>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="46"/>
-    </row>
-    <row r="52" spans="1:22" s="13" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A52" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="62"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="121"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+    </row>
+    <row r="36" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A36" s="228"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="123"/>
+    </row>
+    <row r="37" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A37" s="228"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="229"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="229"/>
+      <c r="J37" s="229"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="123"/>
+    </row>
+    <row r="38" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A38" s="228"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="123"/>
+    </row>
+    <row r="39" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A39" s="228"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="229"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="123"/>
+    </row>
+    <row r="40" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A40" s="228"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="229"/>
+      <c r="J40" s="229"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="123"/>
+    </row>
+    <row r="41" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A41" s="228"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="123"/>
+    </row>
+    <row r="42" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A42" s="228"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="229"/>
+      <c r="G42" s="229"/>
+      <c r="H42" s="229"/>
+      <c r="I42" s="229"/>
+      <c r="J42" s="229"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="123"/>
+    </row>
+    <row r="43" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A43" s="228"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="229"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="229"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="229"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="229"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="123"/>
+    </row>
+    <row r="44" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A44" s="228"/>
+      <c r="B44" s="229"/>
+      <c r="C44" s="229"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="229"/>
+      <c r="I44" s="229"/>
+      <c r="J44" s="229"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="123"/>
+    </row>
+    <row r="45" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A45" s="228"/>
+      <c r="B45" s="229"/>
+      <c r="C45" s="229"/>
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="229"/>
+      <c r="G45" s="229"/>
+      <c r="H45" s="229"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="229"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="122"/>
+      <c r="T45" s="123"/>
+    </row>
+    <row r="46" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A46" s="228"/>
+      <c r="B46" s="229"/>
+      <c r="C46" s="229"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="229"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="123"/>
+    </row>
+    <row r="47" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A47" s="228"/>
+      <c r="B47" s="229"/>
+      <c r="C47" s="229"/>
+      <c r="D47" s="229"/>
+      <c r="E47" s="229"/>
+      <c r="F47" s="229"/>
+      <c r="G47" s="229"/>
+      <c r="H47" s="229"/>
+      <c r="I47" s="229"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="122"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="122"/>
+      <c r="T47" s="123"/>
+    </row>
+    <row r="48" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A48" s="228"/>
+      <c r="B48" s="229"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="229"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="229"/>
+      <c r="I48" s="229"/>
+      <c r="J48" s="229"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="123"/>
+    </row>
+    <row r="49" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A49" s="228"/>
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="229"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="122"/>
+      <c r="T49" s="123"/>
+    </row>
+    <row r="50" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A50" s="228"/>
+      <c r="B50" s="229"/>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="229"/>
+      <c r="J50" s="229"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="123"/>
+    </row>
+    <row r="51" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A51" s="228"/>
+      <c r="B51" s="229"/>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="229"/>
+      <c r="I51" s="229"/>
+      <c r="J51" s="229"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="123"/>
+    </row>
+    <row r="52" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A52" s="228"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="229"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="123"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
     </row>
-    <row r="53" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A53" s="47" t="str">
+    <row r="53" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A53" s="228"/>
+      <c r="B53" s="229"/>
+      <c r="C53" s="229"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
+      <c r="F53" s="229"/>
+      <c r="G53" s="229"/>
+      <c r="H53" s="229"/>
+      <c r="I53" s="229"/>
+      <c r="J53" s="229"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="123"/>
+    </row>
+    <row r="54" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A54" s="228"/>
+      <c r="B54" s="229"/>
+      <c r="C54" s="229"/>
+      <c r="D54" s="229"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="229"/>
+      <c r="H54" s="229"/>
+      <c r="I54" s="229"/>
+      <c r="J54" s="229"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="123"/>
+    </row>
+    <row r="55" spans="1:27" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A55" s="230"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="125"/>
+    </row>
+    <row r="56" spans="1:27" s="13" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A56" s="224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="225"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="225"/>
+      <c r="E56" s="225"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="225"/>
+      <c r="H56" s="225"/>
+      <c r="I56" s="225"/>
+      <c r="J56" s="225"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="132"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A57" s="218" t="str">
         <f>CONCATENATE(,R8)</f>
         <v/>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="54"/>
-    </row>
-    <row r="54" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="56"/>
-    </row>
-    <row r="55" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="56"/>
-    </row>
-    <row r="56" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="56"/>
-    </row>
-    <row r="57" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="56"/>
-    </row>
-    <row r="58" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
-    </row>
-    <row r="59" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="56"/>
-    </row>
-    <row r="60" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
-    </row>
-    <row r="61" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="56"/>
-    </row>
-    <row r="62" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
-    </row>
-    <row r="63" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="56"/>
-    </row>
-    <row r="64" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
+      <c r="B57" s="219"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="219"/>
+      <c r="I57" s="219"/>
+      <c r="J57" s="219"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="127"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+    </row>
+    <row r="58" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A58" s="220"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="221"/>
+      <c r="I58" s="221"/>
+      <c r="J58" s="221"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="129"/>
+    </row>
+    <row r="59" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A59" s="220"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221"/>
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="129"/>
+    </row>
+    <row r="60" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A60" s="220"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
+      <c r="E60" s="221"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="221"/>
+      <c r="H60" s="221"/>
+      <c r="I60" s="221"/>
+      <c r="J60" s="221"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="128"/>
+      <c r="P60" s="128"/>
+      <c r="Q60" s="128"/>
+      <c r="R60" s="128"/>
+      <c r="S60" s="128"/>
+      <c r="T60" s="129"/>
+    </row>
+    <row r="61" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A61" s="220"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
+      <c r="E61" s="221"/>
+      <c r="F61" s="221"/>
+      <c r="G61" s="221"/>
+      <c r="H61" s="221"/>
+      <c r="I61" s="221"/>
+      <c r="J61" s="221"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="128"/>
+      <c r="P61" s="128"/>
+      <c r="Q61" s="128"/>
+      <c r="R61" s="128"/>
+      <c r="S61" s="128"/>
+      <c r="T61" s="129"/>
+    </row>
+    <row r="62" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A62" s="220"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="221"/>
+      <c r="G62" s="221"/>
+      <c r="H62" s="221"/>
+      <c r="I62" s="221"/>
+      <c r="J62" s="221"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="128"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128"/>
+      <c r="R62" s="128"/>
+      <c r="S62" s="128"/>
+      <c r="T62" s="129"/>
+    </row>
+    <row r="63" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A63" s="220"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
+      <c r="E63" s="221"/>
+      <c r="F63" s="221"/>
+      <c r="G63" s="221"/>
+      <c r="H63" s="221"/>
+      <c r="I63" s="221"/>
+      <c r="J63" s="221"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128"/>
+      <c r="R63" s="128"/>
+      <c r="S63" s="128"/>
+      <c r="T63" s="129"/>
+    </row>
+    <row r="64" spans="1:27" ht="34.35" customHeight="1">
+      <c r="A64" s="220"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="221"/>
+      <c r="G64" s="221"/>
+      <c r="H64" s="221"/>
+      <c r="I64" s="221"/>
+      <c r="J64" s="221"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="128"/>
+      <c r="S64" s="128"/>
+      <c r="T64" s="129"/>
     </row>
     <row r="65" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="56"/>
+      <c r="A65" s="220"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
+      <c r="E65" s="221"/>
+      <c r="F65" s="221"/>
+      <c r="G65" s="221"/>
+      <c r="H65" s="221"/>
+      <c r="I65" s="221"/>
+      <c r="J65" s="221"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="128"/>
+      <c r="N65" s="128"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="128"/>
+      <c r="Q65" s="128"/>
+      <c r="R65" s="128"/>
+      <c r="S65" s="128"/>
+      <c r="T65" s="129"/>
     </row>
     <row r="66" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
+      <c r="A66" s="220"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="221"/>
+      <c r="G66" s="221"/>
+      <c r="H66" s="221"/>
+      <c r="I66" s="221"/>
+      <c r="J66" s="221"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="129"/>
     </row>
     <row r="67" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="56"/>
+      <c r="A67" s="220"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="221"/>
+      <c r="G67" s="221"/>
+      <c r="H67" s="221"/>
+      <c r="I67" s="221"/>
+      <c r="J67" s="221"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
+      <c r="Q67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="129"/>
     </row>
     <row r="68" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
+      <c r="A68" s="220"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
+      <c r="E68" s="221"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="221"/>
+      <c r="H68" s="221"/>
+      <c r="I68" s="221"/>
+      <c r="J68" s="221"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
+      <c r="Q68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="128"/>
+      <c r="T68" s="129"/>
     </row>
     <row r="69" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="56"/>
+      <c r="A69" s="220"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
+      <c r="E69" s="221"/>
+      <c r="F69" s="221"/>
+      <c r="G69" s="221"/>
+      <c r="H69" s="221"/>
+      <c r="I69" s="221"/>
+      <c r="J69" s="221"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="128"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="128"/>
+      <c r="Q69" s="128"/>
+      <c r="R69" s="128"/>
+      <c r="S69" s="128"/>
+      <c r="T69" s="129"/>
     </row>
     <row r="70" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="56"/>
+      <c r="A70" s="220"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
+      <c r="G70" s="221"/>
+      <c r="H70" s="221"/>
+      <c r="I70" s="221"/>
+      <c r="J70" s="221"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="128"/>
+      <c r="R70" s="128"/>
+      <c r="S70" s="128"/>
+      <c r="T70" s="129"/>
     </row>
     <row r="71" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="56"/>
+      <c r="A71" s="220"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="221"/>
+      <c r="D71" s="221"/>
+      <c r="E71" s="221"/>
+      <c r="F71" s="221"/>
+      <c r="G71" s="221"/>
+      <c r="H71" s="221"/>
+      <c r="I71" s="221"/>
+      <c r="J71" s="221"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="128"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128"/>
+      <c r="R71" s="128"/>
+      <c r="S71" s="128"/>
+      <c r="T71" s="129"/>
     </row>
     <row r="72" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="56"/>
+      <c r="A72" s="220"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
+      <c r="E72" s="221"/>
+      <c r="F72" s="221"/>
+      <c r="G72" s="221"/>
+      <c r="H72" s="221"/>
+      <c r="I72" s="221"/>
+      <c r="J72" s="221"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="128"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="128"/>
+      <c r="T72" s="129"/>
     </row>
     <row r="73" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="56"/>
+      <c r="A73" s="220"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
+      <c r="E73" s="221"/>
+      <c r="F73" s="221"/>
+      <c r="G73" s="221"/>
+      <c r="H73" s="221"/>
+      <c r="I73" s="221"/>
+      <c r="J73" s="221"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
+      <c r="T73" s="129"/>
     </row>
     <row r="74" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="56"/>
+      <c r="A74" s="220"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
+      <c r="E74" s="221"/>
+      <c r="F74" s="221"/>
+      <c r="G74" s="221"/>
+      <c r="H74" s="221"/>
+      <c r="I74" s="221"/>
+      <c r="J74" s="221"/>
+      <c r="K74" s="128"/>
+      <c r="L74" s="128"/>
+      <c r="M74" s="128"/>
+      <c r="N74" s="128"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128"/>
+      <c r="Q74" s="128"/>
+      <c r="R74" s="128"/>
+      <c r="S74" s="128"/>
+      <c r="T74" s="129"/>
     </row>
     <row r="75" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="56"/>
+      <c r="A75" s="220"/>
+      <c r="B75" s="221"/>
+      <c r="C75" s="221"/>
+      <c r="D75" s="221"/>
+      <c r="E75" s="221"/>
+      <c r="F75" s="221"/>
+      <c r="G75" s="221"/>
+      <c r="H75" s="221"/>
+      <c r="I75" s="221"/>
+      <c r="J75" s="221"/>
+      <c r="K75" s="128"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="128"/>
+      <c r="N75" s="128"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="129"/>
     </row>
     <row r="76" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="56"/>
+      <c r="A76" s="220"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="221"/>
+      <c r="D76" s="221"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="221"/>
+      <c r="G76" s="221"/>
+      <c r="H76" s="221"/>
+      <c r="I76" s="221"/>
+      <c r="J76" s="221"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="128"/>
+      <c r="N76" s="128"/>
+      <c r="O76" s="128"/>
+      <c r="P76" s="128"/>
+      <c r="Q76" s="128"/>
+      <c r="R76" s="128"/>
+      <c r="S76" s="128"/>
+      <c r="T76" s="129"/>
     </row>
     <row r="77" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="56"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="221"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="221"/>
+      <c r="G77" s="221"/>
+      <c r="H77" s="221"/>
+      <c r="I77" s="221"/>
+      <c r="J77" s="221"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="128"/>
+      <c r="N77" s="128"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="128"/>
+      <c r="Q77" s="128"/>
+      <c r="R77" s="128"/>
+      <c r="S77" s="128"/>
+      <c r="T77" s="129"/>
     </row>
     <row r="78" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="56"/>
+      <c r="A78" s="220"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="221"/>
+      <c r="E78" s="221"/>
+      <c r="F78" s="221"/>
+      <c r="G78" s="221"/>
+      <c r="H78" s="221"/>
+      <c r="I78" s="221"/>
+      <c r="J78" s="221"/>
+      <c r="K78" s="128"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="128"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="128"/>
+      <c r="T78" s="129"/>
     </row>
     <row r="79" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="56"/>
+      <c r="A79" s="220"/>
+      <c r="B79" s="221"/>
+      <c r="C79" s="221"/>
+      <c r="D79" s="221"/>
+      <c r="E79" s="221"/>
+      <c r="F79" s="221"/>
+      <c r="G79" s="221"/>
+      <c r="H79" s="221"/>
+      <c r="I79" s="221"/>
+      <c r="J79" s="221"/>
+      <c r="K79" s="128"/>
+      <c r="L79" s="128"/>
+      <c r="M79" s="128"/>
+      <c r="N79" s="128"/>
+      <c r="O79" s="128"/>
+      <c r="P79" s="128"/>
+      <c r="Q79" s="128"/>
+      <c r="R79" s="128"/>
+      <c r="S79" s="128"/>
+      <c r="T79" s="129"/>
     </row>
     <row r="80" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="56"/>
+      <c r="A80" s="220"/>
+      <c r="B80" s="221"/>
+      <c r="C80" s="221"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="221"/>
+      <c r="F80" s="221"/>
+      <c r="G80" s="221"/>
+      <c r="H80" s="221"/>
+      <c r="I80" s="221"/>
+      <c r="J80" s="221"/>
+      <c r="K80" s="128"/>
+      <c r="L80" s="128"/>
+      <c r="M80" s="128"/>
+      <c r="N80" s="128"/>
+      <c r="O80" s="128"/>
+      <c r="P80" s="128"/>
+      <c r="Q80" s="128"/>
+      <c r="R80" s="128"/>
+      <c r="S80" s="128"/>
+      <c r="T80" s="129"/>
     </row>
     <row r="81" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="56"/>
-    </row>
-    <row r="82" spans="1:20" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="57"/>
-      <c r="S82" s="57"/>
-      <c r="T82" s="58"/>
+      <c r="A81" s="220"/>
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="221"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="221"/>
+      <c r="I81" s="221"/>
+      <c r="J81" s="221"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="128"/>
+      <c r="M81" s="128"/>
+      <c r="N81" s="128"/>
+      <c r="O81" s="128"/>
+      <c r="P81" s="128"/>
+      <c r="Q81" s="128"/>
+      <c r="R81" s="128"/>
+      <c r="S81" s="128"/>
+      <c r="T81" s="129"/>
+    </row>
+    <row r="82" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A82" s="220"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="221"/>
+      <c r="D82" s="221"/>
+      <c r="E82" s="221"/>
+      <c r="F82" s="221"/>
+      <c r="G82" s="221"/>
+      <c r="H82" s="221"/>
+      <c r="I82" s="221"/>
+      <c r="J82" s="221"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="128"/>
+      <c r="N82" s="128"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
+      <c r="Q82" s="128"/>
+      <c r="R82" s="128"/>
+      <c r="S82" s="128"/>
+      <c r="T82" s="129"/>
+    </row>
+    <row r="83" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A83" s="220"/>
+      <c r="B83" s="221"/>
+      <c r="C83" s="221"/>
+      <c r="D83" s="221"/>
+      <c r="E83" s="221"/>
+      <c r="F83" s="221"/>
+      <c r="G83" s="221"/>
+      <c r="H83" s="221"/>
+      <c r="I83" s="221"/>
+      <c r="J83" s="221"/>
+      <c r="K83" s="128"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="128"/>
+      <c r="N83" s="128"/>
+      <c r="O83" s="128"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="128"/>
+      <c r="R83" s="128"/>
+      <c r="S83" s="128"/>
+      <c r="T83" s="129"/>
+    </row>
+    <row r="84" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A84" s="220"/>
+      <c r="B84" s="221"/>
+      <c r="C84" s="221"/>
+      <c r="D84" s="221"/>
+      <c r="E84" s="221"/>
+      <c r="F84" s="221"/>
+      <c r="G84" s="221"/>
+      <c r="H84" s="221"/>
+      <c r="I84" s="221"/>
+      <c r="J84" s="221"/>
+      <c r="K84" s="128"/>
+      <c r="L84" s="128"/>
+      <c r="M84" s="128"/>
+      <c r="N84" s="128"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="128"/>
+      <c r="Q84" s="128"/>
+      <c r="R84" s="128"/>
+      <c r="S84" s="128"/>
+      <c r="T84" s="129"/>
+    </row>
+    <row r="85" spans="1:20" ht="34.35" customHeight="1">
+      <c r="A85" s="220"/>
+      <c r="B85" s="221"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="221"/>
+      <c r="E85" s="221"/>
+      <c r="F85" s="221"/>
+      <c r="G85" s="221"/>
+      <c r="H85" s="221"/>
+      <c r="I85" s="221"/>
+      <c r="J85" s="221"/>
+      <c r="K85" s="128"/>
+      <c r="L85" s="128"/>
+      <c r="M85" s="128"/>
+      <c r="N85" s="128"/>
+      <c r="O85" s="128"/>
+      <c r="P85" s="128"/>
+      <c r="Q85" s="128"/>
+      <c r="R85" s="128"/>
+      <c r="S85" s="128"/>
+      <c r="T85" s="129"/>
+    </row>
+    <row r="86" spans="1:20" ht="34.35" customHeight="1" thickBot="1">
+      <c r="A86" s="222"/>
+      <c r="B86" s="223"/>
+      <c r="C86" s="223"/>
+      <c r="D86" s="223"/>
+      <c r="E86" s="223"/>
+      <c r="F86" s="223"/>
+      <c r="G86" s="223"/>
+      <c r="H86" s="223"/>
+      <c r="I86" s="223"/>
+      <c r="J86" s="223"/>
+      <c r="K86" s="130"/>
+      <c r="L86" s="130"/>
+      <c r="M86" s="130"/>
+      <c r="N86" s="130"/>
+      <c r="O86" s="130"/>
+      <c r="P86" s="130"/>
+      <c r="Q86" s="130"/>
+      <c r="R86" s="130"/>
+      <c r="S86" s="130"/>
+      <c r="T86" s="131"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="37">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="K31:T51"/>
-    <mergeCell ref="A53:J82"/>
-    <mergeCell ref="K53:T82"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="A31:J51"/>
+  <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="35">
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A57:J86"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A35:J55"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="C4:T4"/>
     <mergeCell ref="R6:R7"/>
@@ -6556,345 +6951,335 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="P8:P26"/>
-    <mergeCell ref="R8:R26"/>
+    <mergeCell ref="P8:P30"/>
+    <mergeCell ref="R8:R30"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="64" priority="1749" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1754" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O10">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="116">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="121">
       <formula>LEN(TRIM(O9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q10">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="115">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="120">
       <formula>LEN(TRIM(Q8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="117">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="122">
       <formula>LEN(TRIM(P8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N15">
-    <cfRule type="cellIs" dxfId="60" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O13">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="105">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="110">
       <formula>LEN(TRIM(O12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q13">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="104">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="109">
       <formula>LEN(TRIM(Q11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="106">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="111">
       <formula>LEN(TRIM(P11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15 O17">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="94">
+  <conditionalFormatting sqref="O15 O17:O21">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="99">
       <formula>LEN(TRIM(O15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15 Q17">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="93">
+  <conditionalFormatting sqref="Q14:Q15 Q17:Q21">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="98">
       <formula>LEN(TRIM(Q14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="95">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="100">
       <formula>LEN(TRIM(P14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O20">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="83">
-      <formula>LEN(TRIM(O19))&gt;0</formula>
+  <conditionalFormatting sqref="O23:O24">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="88">
+      <formula>LEN(TRIM(O23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q20">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="82">
-      <formula>LEN(TRIM(Q18))&gt;0</formula>
+  <conditionalFormatting sqref="Q22:Q24">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="87">
+      <formula>LEN(TRIM(Q22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="84">
-      <formula>LEN(TRIM(P18))&gt;0</formula>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="89">
+      <formula>LEN(TRIM(P22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N20">
-    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+  <conditionalFormatting sqref="N17:N24">
+    <cfRule type="cellIs" dxfId="48" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O23">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="72">
-      <formula>LEN(TRIM(O22))&gt;0</formula>
+  <conditionalFormatting sqref="O26:O27">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="77">
+      <formula>LEN(TRIM(O26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:Q23">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="71">
-      <formula>LEN(TRIM(Q21))&gt;0</formula>
+  <conditionalFormatting sqref="Q25:Q27">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="76">
+      <formula>LEN(TRIM(Q25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="73">
-      <formula>LEN(TRIM(P21))&gt;0</formula>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="78">
+      <formula>LEN(TRIM(P25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N22">
-    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+  <conditionalFormatting sqref="N25:N26">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="45" priority="69" operator="equal">
+  <conditionalFormatting sqref="N27">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O26">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="61">
-      <formula>LEN(TRIM(O25))&gt;0</formula>
+  <conditionalFormatting sqref="O29:O30">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="66">
+      <formula>LEN(TRIM(O29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:Q26">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="60">
-      <formula>LEN(TRIM(Q24))&gt;0</formula>
+  <conditionalFormatting sqref="Q28:Q30">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="65">
+      <formula>LEN(TRIM(Q28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="62">
-      <formula>LEN(TRIM(P24))&gt;0</formula>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="67">
+      <formula>LEN(TRIM(P28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N25">
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+  <conditionalFormatting sqref="N28:N29">
+    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="40" priority="58" operator="equal">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:M9">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>D8&gt;D9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:M8">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>D8&gt;D9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>D10&gt;D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:M10">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="34" priority="42">
       <formula>D10&gt;D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>D11&gt;D9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:M9">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>D11&gt;D9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:M12">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>D12&gt;D9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:M9">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="32" priority="39">
       <formula>D12&gt;D9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:M13">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>D13&gt;D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:M10">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>D13&gt;D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:M14">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>D14&gt;D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>D14&gt;D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:M15">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>D15&gt;D12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:M12">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>D15&gt;D12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M17">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>D17&gt;D9</formula>
+  <conditionalFormatting sqref="D22:M22">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>D22&gt;D17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:M9">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>D17&gt;D9</formula>
+  <conditionalFormatting sqref="D23:M23">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>D23&gt;D22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:M22">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>D23&gt;D22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:M24">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>D24&gt;D17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:M25">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>D25&gt;D17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>D26&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:M25">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>D26&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>D27&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:M25">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>D27&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:M28">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>D28&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>D28&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:M29">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>D29&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>D29&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:M30">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>D30&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>D30&gt;D27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:M30">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>(D30+D29)&lt;&gt;D28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:M29">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>(D30+D29)&lt;&gt;D28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:M28">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>(D30+D29)&lt;&gt;D28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>(D27+D26)&lt;&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>(D27+D26)&lt;&gt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:M25">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>(D27+D26)&lt;&gt;D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:M18">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>D18&gt;D17</formula>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>((D18+D19+D20+D21)&gt;D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M17">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>D18&gt;D17</formula>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>((D18+D19+D20+D21)&gt;D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:M19">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>D19&gt;D18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:M18">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>D19&gt;D18</formula>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>((D18+D19+D20+D21)&gt;D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:M20">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>D20&gt;D17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M17">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>D20&gt;D17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:M21">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>D21&gt;D17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M17">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>D21&gt;D17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:M22">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>D22&gt;D21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:M21">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>D22&gt;D21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M23">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>D23&gt;D21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:M21">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>D23&gt;D21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:M24">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>D24&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M23">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>D24&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:M25">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>D25&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M23">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>D25&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:M26">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>D26&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M23">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>D26&gt;D23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:M26">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>(D26+D25)&lt;&gt;D24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:M25">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>(D26+D25)&lt;&gt;D24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:M24">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>(D26+D25)&lt;&gt;D24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M23">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>(D23+D22)&lt;&gt;D21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:M22">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>(D23+D22)&lt;&gt;D21</formula>
+      <formula>((D18+D19+D20+D21)&gt;D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:M21">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(D23+D22)&lt;&gt;D21</formula>
+      <formula>((D18+D19+D20+D21)&gt;D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Numeric or abnormal value" error="Enter Numbers only between 0 and 99999" sqref="D8:M15 D17:M26">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Numeric or abnormal value" error="Enter Numbers only between 0 and 99999" sqref="D8:M15 D17:M30">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
@@ -7162,16 +7547,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9757ECA-E322-4B4F-A80B-F429838D8BF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
     <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
